--- a/statistics/HistoricalDistanceData/historical_distance/Q18732673-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q18732673-en.xlsx
@@ -31,46 +31,46 @@
     <t>uri</t>
   </si>
   <si>
+    <t>The Observer view on Nigeria’s potentially explosive election</t>
+  </si>
+  <si>
     <t>2,000 dead and nothing said: leaders ask Nigeria's president to end silence</t>
   </si>
   <si>
-    <t>The Observer view on Nigeria’s potentially explosive election</t>
+    <t>Nigeria gov't denies new Boko Haram mass kidnap</t>
   </si>
   <si>
     <t>Boko Haram overruns Multinational Joint Task Force base</t>
   </si>
   <si>
-    <t>Nigeria gov't denies new Boko Haram mass kidnap</t>
+    <t>2015-01-17T00:00:00UTC</t>
   </si>
   <si>
     <t>2015-01-16T00:00:00UTC</t>
   </si>
   <si>
-    <t>2015-01-17T00:00:00UTC</t>
+    <t>2014-06-24T12:53:00UTC</t>
   </si>
   <si>
     <t>2015-01-04T11:39:36UTC</t>
   </si>
   <si>
-    <t>2014-06-24T12:53:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>day_2_to_30</t>
   </si>
   <si>
+    <t>https://www.theguardian.com/commentisfree/2015/jan/18/the-observer-view-on-the-nigerian-elections-february-2015</t>
+  </si>
+  <si>
     <t>https://www.theguardian.com/global-development-professionals-network/2015/jan/16/boko-haram-goodluck-jonathan-wef-young-global-leaders</t>
   </si>
   <si>
-    <t>https://www.theguardian.com/commentisfree/2015/jan/18/the-observer-view-on-the-nigerian-elections-february-2015</t>
+    <t>http://www.cbsnews.com/news/nigeria-denies-boko-haram-kidnapped-another-60-girls-31-boys/</t>
   </si>
   <si>
     <t>http://www.longwarjournal.org/archives/2015/01/boko_haram_overruns_1.php</t>
-  </si>
-  <si>
-    <t>http://www.cbsnews.com/news/nigeria-denies-boko-haram-kidnapped-another-60-girls-31-boys/</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -489,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
